--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44585</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44631</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43329</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44995</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45055</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43655</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43713</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43700</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44029</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44951</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44075</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44218</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>44232</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44237</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44312</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44430</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>44451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44699</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44817</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45005</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45097</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>45098</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44585</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44631</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>43329</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44995</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>45055</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43368</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43500</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43655</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43713</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43700</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44029</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44650</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44732</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44951</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44075</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44218</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>44232</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44237</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44312</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44430</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>44451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44699</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44817</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45005</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45097</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>45098</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14182,7 +14182,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3277,64 +3277,156 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
+          <t>A 28001-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp
+Doftskinn
+Garnlav
+Mörk kolflarnlav
+Skrovlig taggsvamp
+Spillkråka
+Ullticka
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 28001-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 28001-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 28001-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 28001-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 28001-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 28001-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>A 51856-2019</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>43741</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C30" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>4.8</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>4</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q30" t="n">
         <v>7</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Harticka
@@ -3345,91 +3437,91 @@
 Korallrot</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 51856-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 51856-2019.png")</f>
         <v/>
       </c>
-      <c r="U29">
+      <c r="U30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 51856-2019.png")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 51856-2019.docx")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 51856-2019.docx")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 51856-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 51856-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 3358-2022</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44585</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>1.8</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>3</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J31" t="n">
         <v>5</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>5</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>7</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Rosenticka
@@ -3440,92 +3532,92 @@
 Skogsrör</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3358-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3358-2022.png")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3358-2022.docx")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3358-2022.docx")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3358-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3358-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 42835-2021</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44430</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>27.1</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>2</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>6</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tretåig hackspett
@@ -3535,87 +3627,87 @@
 Tvåblad</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42835-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42835-2021.png")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42835-2021.docx")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42835-2021.docx")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42835-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42835-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 11586-2022</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44631</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="C33" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>8.6</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J33" t="n">
         <v>3</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
         <v>2</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>5</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>2</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>6</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -3625,96 +3717,96 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 11586-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 11586-2022.png")</f>
         <v/>
       </c>
-      <c r="U32">
+      <c r="U33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 11586-2022.png")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 11586-2022.docx")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 11586-2022.docx")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 11586-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 11586-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 36446-2018</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>43329</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="C34" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>5</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>5</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Harticka
@@ -3723,87 +3815,87 @@
 Vedtrappmossa</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 36446-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 36446-2018.png")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 36446-2018.docx")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 36446-2018.docx")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 36446-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 36446-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 10351-2019</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>43511</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="C35" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>30</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>5</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>5</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Lappuggla
 Blå kärrhök
@@ -3812,92 +3904,92 @@
 Ärtsångare</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 10351-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 10351-2019.png")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 10351-2019.docx")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 10351-2019.docx")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 10351-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 10351-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 12427-2023</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44995</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="C36" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>344.5</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J36" t="n">
         <v>3</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>4</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P36" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Vedtrådmossa
 Doftskinn
@@ -3906,87 +3998,87 @@
 Mörk husmossa</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12427-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12427-2023.png")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12427-2023.docx")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12427-2023.docx")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12427-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12427-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 20701-2023</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>45055</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="C37" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>12.7</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>3</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>5</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Skrovellav
@@ -3995,87 +4087,87 @@
 Luddlav</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20701-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20701-2023.png")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20701-2023.docx")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20701-2023.docx")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20701-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20701-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 46729-2018</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>43368</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="C38" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>11.3</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K38" t="n">
         <v>3</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>4</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>3</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Liten sotlav
 Ostticka
@@ -4083,87 +4175,87 @@
 Rosenticka</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 46729-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 46729-2018.png")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 46729-2018.docx")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 46729-2018.docx")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 46729-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 46729-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>A 7819-2019</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B39" s="1" t="n">
         <v>43500</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="C39" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>17.6</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>4</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>4</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Harticka
@@ -4171,92 +4263,92 @@
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7819-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7819-2019.png")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7819-2019.docx")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7819-2019.docx")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7819-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7819-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>A 33350-2022</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B40" s="1" t="n">
         <v>44788</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="C40" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G40" t="n">
         <v>6.6</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" t="n">
         <v>3</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>3</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>4</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Talltaggsvamp
@@ -4264,1291 +4356,1206 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 33350-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 33350-2022.png")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 33350-2022.docx")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 33350-2022.docx")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 33350-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 33350-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>A 34201-2019</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B41" s="1" t="n">
         <v>43655</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="C41" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>32</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K41" t="n">
         <v>1</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>3</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Smalfotad taggsvamp
 Nordtagging
 Rosenticka</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34201-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34201-2019.png")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34201-2019.docx")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34201-2019.docx")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34201-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34201-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>A 45239-2019</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42" s="1" t="n">
         <v>43713</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="C42" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>9.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J42" t="n">
         <v>2</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>2</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>3</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Vedflamlav
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 45239-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 45239-2019.png")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 45239-2019.docx")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 45239-2019.docx")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 45239-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 45239-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>A 3412-2022</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B43" s="1" t="n">
         <v>44585</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="C43" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>0.7</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spindelblomster
 Skogsrör</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3412-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3412-2022.png")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3412-2022.docx")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3412-2022.docx")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3412-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3412-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>A 3638-2019</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44" s="1" t="n">
         <v>43481</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="C44" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G44" t="n">
         <v>6</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J44" t="n">
         <v>1</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Mörk husmossa</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3638-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3638-2019.png")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3638-2019.docx")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3638-2019.docx")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3638-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3638-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>A 42000-2019</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45" s="1" t="n">
         <v>43700</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="C45" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>18.4</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>2</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>2</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P45" t="n">
         <v>2</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q45" t="n">
         <v>2</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Liten sotlav
 Ostticka</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42000-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42000-2019.png")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42000-2019.docx")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42000-2019.docx")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42000-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42000-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>A 47994-2019</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46" s="1" t="n">
         <v>43725</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="C46" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>22.2</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>2</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>2</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>2</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Violettkantad guldvinge</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 47994-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 47994-2019.png")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 47994-2019.docx")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 47994-2019.docx")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 47994-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 47994-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>A 34276-2020</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B47" s="1" t="n">
         <v>44029</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="C47" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>3.5</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>2</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Duvhök</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34276-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34276-2020.png")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34276-2020.docx")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34276-2020.docx")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34276-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34276-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>A 29349-2021</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B48" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="C48" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G48" t="n">
         <v>12.4</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2</v>
       </c>
-      <c r="R47" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>Luddlav
 Stuplav</t>
         </is>
       </c>
-      <c r="S47">
+      <c r="S48">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29349-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T47">
+      <c r="T48">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29349-2021.png")</f>
         <v/>
       </c>
-      <c r="V47">
+      <c r="V48">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29349-2021.docx")</f>
         <v/>
       </c>
-      <c r="W47">
+      <c r="W48">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29349-2021.docx")</f>
         <v/>
       </c>
-      <c r="X47">
+      <c r="X48">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29349-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29349-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="inlineStr">
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
           <t>A 40652-2021</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B49" s="1" t="n">
         <v>44420</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+      <c r="C49" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>10</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>1</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>1</v>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>2</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R48" s="2" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S48">
+      <c r="S49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 40652-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T48">
+      <c r="T49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 40652-2021.png")</f>
         <v/>
       </c>
-      <c r="U48">
+      <c r="U49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 40652-2021.png")</f>
         <v/>
       </c>
-      <c r="V48">
+      <c r="V49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 40652-2021.docx")</f>
         <v/>
       </c>
-      <c r="W48">
+      <c r="W49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 40652-2021.docx")</f>
         <v/>
       </c>
-      <c r="X48">
+      <c r="X49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 40652-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y48">
+      <c r="Y49">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 40652-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="inlineStr">
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="inlineStr">
         <is>
           <t>A 40939-2021</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B50" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
+      <c r="C50" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
         <v>4.8</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>1</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K50" t="n">
         <v>1</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>2</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P50" t="n">
         <v>1</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q50" t="n">
         <v>2</v>
       </c>
-      <c r="R49" s="2" t="inlineStr">
+      <c r="R50" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Lunglav</t>
         </is>
       </c>
-      <c r="S49">
+      <c r="S50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 40939-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T49">
+      <c r="T50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 40939-2021.png")</f>
         <v/>
       </c>
-      <c r="U49">
+      <c r="U50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 40939-2021.png")</f>
         <v/>
       </c>
-      <c r="V49">
+      <c r="V50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 40939-2021.docx")</f>
         <v/>
       </c>
-      <c r="W49">
+      <c r="W50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 40939-2021.docx")</f>
         <v/>
       </c>
-      <c r="X49">
+      <c r="X50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 40939-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y49">
+      <c r="Y50">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 40939-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="inlineStr">
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="inlineStr">
         <is>
           <t>A 14070-2022</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B51" s="1" t="n">
         <v>44650</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="C51" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="G51" t="n">
         <v>14.1</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>2</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>2</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>2</v>
       </c>
-      <c r="R50" s="2" t="inlineStr">
+      <c r="R51" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Järpe</t>
         </is>
       </c>
-      <c r="S50">
+      <c r="S51">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 14070-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T50">
+      <c r="T51">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 14070-2022.png")</f>
         <v/>
       </c>
-      <c r="V50">
+      <c r="V51">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 14070-2022.docx")</f>
         <v/>
       </c>
-      <c r="W50">
+      <c r="W51">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 14070-2022.docx")</f>
         <v/>
       </c>
-      <c r="X50">
+      <c r="X51">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 14070-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y50">
+      <c r="Y51">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 14070-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="inlineStr">
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>A 25524-2022</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B52" s="1" t="n">
         <v>44732</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+      <c r="C52" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="G52" t="n">
         <v>3.8</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>1</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K52" t="n">
         <v>1</v>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>2</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P52" t="n">
         <v>1</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q52" t="n">
         <v>2</v>
       </c>
-      <c r="R51" s="2" t="inlineStr">
+      <c r="R52" s="2" t="inlineStr">
         <is>
           <t>Grantickeporing
 Granticka</t>
         </is>
       </c>
-      <c r="S51">
+      <c r="S52">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 25524-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T51">
+      <c r="T52">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 25524-2022.png")</f>
         <v/>
       </c>
-      <c r="V51">
+      <c r="V52">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 25524-2022.docx")</f>
         <v/>
       </c>
-      <c r="W51">
+      <c r="W52">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 25524-2022.docx")</f>
         <v/>
       </c>
-      <c r="X51">
+      <c r="X52">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 25524-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y51">
+      <c r="Y52">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 25524-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="inlineStr">
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="inlineStr">
         <is>
           <t>A 3893-2023</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B53" s="1" t="n">
         <v>44951</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
+      <c r="C53" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="G53" t="n">
         <v>2.1</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J53" t="n">
         <v>1</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
         <v>2</v>
       </c>
-      <c r="R52" s="2" t="inlineStr">
+      <c r="R53" s="2" t="inlineStr">
         <is>
           <t>Talltaggsvamp
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S52">
+      <c r="S53">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3893-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T52">
+      <c r="T53">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3893-2023.png")</f>
         <v/>
       </c>
-      <c r="V52">
+      <c r="V53">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3893-2023.docx")</f>
         <v/>
       </c>
-      <c r="W52">
+      <c r="W53">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3893-2023.docx")</f>
         <v/>
       </c>
-      <c r="X52">
+      <c r="X53">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3893-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y52">
+      <c r="Y53">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3893-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>A 7826-2019</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>43500</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål</t>
-        </is>
-      </c>
-      <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7826-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7826-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7826-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7826-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7826-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7826-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63673-2019</t>
+          <t>A 7826-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43789</v>
+        <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5561,19 +5568,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5588,52 +5595,52 @@
         <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 63673-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7826-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 63673-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7826-2019.png")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7826-2019.docx")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7826-2019.docx")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7826-2019.docx")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7826-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42134-2020</t>
+          <t>A 63673-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44075</v>
+        <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5645,25 +5652,20 @@
           <t>STORUMAN</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>16.2</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
         <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -5678,52 +5680,52 @@
         <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42134-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 63673-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42134-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 63673-2019.png")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 63673-2019.docx")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 63673-2019.docx")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 63673-2019.docx")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 63673-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3502-2021</t>
+          <t>A 42134-2020</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44218</v>
+        <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5741,17 +5743,17 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.3</v>
+        <v>16.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -5775,45 +5777,45 @@
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3502-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42134-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3502-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42134-2020.png")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42134-2020.docx")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42134-2020.docx")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42134-2020.docx")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42134-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6210-2021</t>
+          <t>A 3502-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44232</v>
+        <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5825,17 +5827,22 @@
           <t>STORUMAN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5850,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5860,45 +5867,45 @@
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6210-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3502-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6210-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3502-2021.png")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3502-2021.docx")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3502-2021.docx")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3502-2021.docx")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3502-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6852-2021</t>
+          <t>A 6210-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5910,23 +5917,18 @@
           <t>STORUMAN</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>6.7</v>
+        <v>14</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>1</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5950,45 +5952,45 @@
       </c>
       <c r="R58" s="2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6852-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6210-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6852-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6210-2021.png")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6210-2021.docx")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6210-2021.docx")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6210-2021.docx")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6210-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19713-2021</t>
+          <t>A 6852-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44312</v>
+        <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6000,20 +6002,25 @@
           <t>STORUMAN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -6025,59 +6032,55 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19713-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6852-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19713-2021.png")</f>
-        <v/>
-      </c>
-      <c r="U59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 19713-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6852-2021.png")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6852-2021.docx")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6852-2021.docx")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6852-2021.docx")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6852-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42843-2021</t>
+          <t>A 19713-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44430</v>
+        <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6089,25 +6092,20 @@
           <t>STORUMAN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>19.7</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
         <v>1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -6122,52 +6120,56 @@
         <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42843-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19713-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42843-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19713-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U60">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 19713-2021.png")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19713-2021.docx")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19713-2021.docx")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19713-2021.docx")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19713-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48337-2021</t>
+          <t>A 42843-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44451</v>
+        <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6181,11 +6183,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>19.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6219,45 +6221,45 @@
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48337-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42843-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48337-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42843-2021.png")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42843-2021.docx")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42843-2021.docx")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42843-2021.docx")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42843-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48339-2021</t>
+          <t>A 48337-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6275,7 +6277,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6309,45 +6311,45 @@
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48339-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48337-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48339-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48337-2021.png")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48337-2021.docx")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48337-2021.docx")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48337-2021.docx")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48337-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20434-2022</t>
+          <t>A 48339-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44699</v>
+        <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6359,20 +6361,25 @@
           <t>STORUMAN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6387,56 +6394,52 @@
         <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20434-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48339-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20434-2022.png")</f>
-        <v/>
-      </c>
-      <c r="U63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 20434-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48339-2021.png")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48339-2021.docx")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48339-2021.docx")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48339-2021.docx")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48339-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39237-2022</t>
+          <t>A 20434-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44817</v>
+        <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6448,26 +6451,21 @@
           <t>STORUMAN</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
         <v>1</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
@@ -6478,55 +6476,59 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 39237-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20434-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 39237-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20434-2022.png")</f>
+        <v/>
+      </c>
+      <c r="U64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 20434-2022.png")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20434-2022.docx")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20434-2022.docx")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20434-2022.docx")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20434-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13445-2023</t>
+          <t>A 39237-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45005</v>
+        <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6538,14 +6540,19 @@
           <t>STORUMAN</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -6573,45 +6580,45 @@
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 13445-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 39237-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 13445-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 39237-2022.png")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 39237-2022.docx")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 39237-2022.docx")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 39237-2022.docx")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 39237-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19153-2023</t>
+          <t>A 13445-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45044</v>
+        <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6624,16 +6631,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>16</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -6648,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -6658,45 +6665,45 @@
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19153-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 13445-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19153-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 13445-2023.png")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 13445-2023.docx")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 13445-2023.docx")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 13445-2023.docx")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 13445-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29223-2023</t>
+          <t>A 19153-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45097</v>
+        <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6709,19 +6716,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6736,52 +6743,52 @@
         <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>Norna</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29223-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19153-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29223-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19153-2023.png")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19153-2023.docx")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19153-2023.docx")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19153-2023.docx")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19153-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28001-2023</t>
+          <t>A 29223-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6794,7 +6801,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>14.2</v>
+        <v>20</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -6803,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
         <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6821,38 +6828,38 @@
         <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
       </c>
       <c r="R68" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Norna</t>
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 28001-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29223-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 28001-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29223-2023.png")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29223-2023.docx")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29223-2023.docx")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29223-2023.docx")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29223-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -6866,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6960,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7050,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7107,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7164,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7221,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7278,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7335,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7392,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7449,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7563,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7620,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7677,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7734,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7791,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7848,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7905,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7962,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8019,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8081,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8138,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8195,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8252,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8309,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8371,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8433,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8490,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8547,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8604,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8661,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8723,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8785,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8842,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8899,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8956,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9013,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9075,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9132,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9189,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9246,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9303,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9360,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9422,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9484,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9546,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9603,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9660,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9717,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9779,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9841,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9903,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9965,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10022,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10084,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10146,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10203,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10265,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10322,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10384,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10441,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10498,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10560,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10622,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10679,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10741,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10803,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10865,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10927,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10989,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11051,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11113,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11170,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11227,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11284,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11341,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11398,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11460,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11522,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11579,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11641,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11698,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11755,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11812,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11869,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11926,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11983,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12040,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12097,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12154,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12211,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12268,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12330,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12387,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12444,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12501,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12558,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12615,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12677,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12734,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12791,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12853,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12915,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12977,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13039,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13101,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13163,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13225,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13287,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13349,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13406,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13463,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13525,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13582,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13644,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13701,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13763,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13820,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13877,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13939,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14001,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14063,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14120,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14182,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14244,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14306,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14368,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14425,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14482,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14544,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14606,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14668,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14730,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14792,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14849,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14906,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14963,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15020,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15077,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15134,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15196,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15258,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15320,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15377,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15439,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15501,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15563,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15620,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15677,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15734,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15791,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15848,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15905,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15962,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16019,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16076,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16133,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16190,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16247,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16304,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16361,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16418,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16475,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16532,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16589,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16646,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16703,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16760,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16817,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16879,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16941,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17003,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17065,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17127,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17184,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17241,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17298,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17355,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17412,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17469,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17526,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17583,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17640,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17697,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17754,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17816,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17873,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17930,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17987,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18044,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18101,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18158,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18215,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18272,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18334,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18391,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18448,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18505,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18567,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18624,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18681,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18738,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18795,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18857,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18914,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18971,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19028,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19085,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19142,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19199,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19256,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19313,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19370,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19427,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19484,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19541,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19598,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19655,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19712,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19826,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19883,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20178,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20235,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20292,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20349,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20411,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20468,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20530,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20592,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20654,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20711,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20768,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20882,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20939,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20996,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21053,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21110,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21167,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21224,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21281,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21338,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21395,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21452,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21509,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21566,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21623,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21685,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21742,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21799,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21856,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21918,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21980,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22042,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22104,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22161,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22218,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22275,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22332,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22394,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22451,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22508,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22565,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22627,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22689,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22746,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22808,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22870,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22932,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22989,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23051,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23113,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23175,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23237,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23294,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23351,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23408,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23470,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23527,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23584,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23641,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23698,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23760,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23822,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23884,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23941,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23998,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24055,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24117,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24174,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24236,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24293,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24355,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24412,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24469,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24526,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24583,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24640,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24697,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24754,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24811,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24868,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24925,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24982,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25039,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25096,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25153,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25215,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25272,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25329,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25386,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25448,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25505,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25562,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25624,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25681,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25743,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25805,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25862,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25924,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25981,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26043,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26100,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26162,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26224,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,27 +665,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43882-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43882-2020.xlsx", "A 43882-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43882-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43882-2020.png", "A 43882-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43882-2020.docx", "A 43882-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43882-2020.docx", "A 43882-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43882-2020.docx", "A 43882-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43882-2020.docx", "A 43882-2020")</f>
         <v/>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,27 +778,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43891-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43891-2020.xlsx", "A 43891-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43891-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43891-2020.png", "A 43891-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43891-2020.docx", "A 43891-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43891-2020.docx", "A 43891-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43891-2020.docx", "A 43891-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43891-2020.docx", "A 43891-2020")</f>
         <v/>
       </c>
     </row>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,27 +880,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3379-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3379-2022.xlsx", "A 3379-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3379-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3379-2022.png", "A 3379-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3379-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,27 +987,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 59219-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 59219-2022.xlsx", "A 59219-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 59219-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 59219-2022.png", "A 59219-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 59219-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 59219-2022.docx", "A 59219-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 59219-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 59219-2022.docx", "A 59219-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 59219-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 59219-2022.docx", "A 59219-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 59219-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 59219-2022.docx", "A 59219-2022")</f>
         <v/>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,27 +1088,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 22179-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 22179-2022.xlsx", "A 22179-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 22179-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 22179-2022.png", "A 22179-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 22179-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 22179-2022.docx", "A 22179-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 22179-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 22179-2022.docx", "A 22179-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 22179-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 22179-2022.docx", "A 22179-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 22179-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 22179-2022.docx", "A 22179-2022")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,27 +1194,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12372-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12372-2023.xlsx", "A 12372-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12372-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12372-2023.png", "A 12372-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12372-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12372-2023.docx", "A 12372-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12372-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12372-2023.docx", "A 12372-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12372-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12372-2023.docx", "A 12372-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12372-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12372-2023.docx", "A 12372-2023")</f>
         <v/>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1298,27 +1298,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43937-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43937-2020.xlsx", "A 43937-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43937-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43937-2020.png", "A 43937-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43937-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43937-2020.docx", "A 43937-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43937-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43937-2020.docx", "A 43937-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43937-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43937-2020.docx", "A 43937-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43937-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43937-2020.docx", "A 43937-2020")</f>
         <v/>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,31 +1401,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 2135-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 2135-2023.xlsx", "A 2135-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 2135-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 2135-2023.png", "A 2135-2023")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 2135-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 2135-2023.png", "A 2135-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 2135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 2135-2023.docx", "A 2135-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 2135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 2135-2023.docx", "A 2135-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 2135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 2135-2023.docx", "A 2135-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 2135-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 2135-2023.docx", "A 2135-2023")</f>
         <v/>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,27 +1502,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42617-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42617-2020.xlsx", "A 42617-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42617-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42617-2020.png", "A 42617-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42617-2020.docx", "A 42617-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42617-2020.docx", "A 42617-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42617-2020.docx", "A 42617-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42617-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42617-2020.docx", "A 42617-2020")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1604,27 +1604,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43929-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43929-2020.xlsx", "A 43929-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43929-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43929-2020.png", "A 43929-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43929-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43929-2020.docx", "A 43929-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43929-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43929-2020.docx", "A 43929-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43929-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43929-2020.docx", "A 43929-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43929-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43929-2020.docx", "A 43929-2020")</f>
         <v/>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,27 +1706,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43915-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43915-2020.xlsx", "A 43915-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43915-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43915-2020.png", "A 43915-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43915-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43915-2020.docx", "A 43915-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43915-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43915-2020.docx", "A 43915-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43915-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43915-2020.docx", "A 43915-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43915-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43915-2020.docx", "A 43915-2020")</f>
         <v/>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1803,27 +1803,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34681-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34681-2021.xlsx", "A 34681-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34681-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34681-2021.png", "A 34681-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34681-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34681-2021.docx", "A 34681-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34681-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34681-2021.docx", "A 34681-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34681-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34681-2021.docx", "A 34681-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34681-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34681-2021.docx", "A 34681-2021")</f>
         <v/>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1905,27 +1905,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12261-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12261-2023.xlsx", "A 12261-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12261-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12261-2023.png", "A 12261-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12261-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12261-2023.docx", "A 12261-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12261-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12261-2023.docx", "A 12261-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12261-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12261-2023.docx", "A 12261-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12261-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12261-2023.docx", "A 12261-2023")</f>
         <v/>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,27 +2006,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43878-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43878-2020.xlsx", "A 43878-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43878-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43878-2020.png", "A 43878-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43878-2020.docx", "A 43878-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43878-2020.docx", "A 43878-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43878-2020.docx", "A 43878-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43878-2020.docx", "A 43878-2020")</f>
         <v/>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2107,27 +2107,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 67780-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 67780-2020.xlsx", "A 67780-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 67780-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 67780-2020.png", "A 67780-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 67780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 67780-2020.docx", "A 67780-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 67780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 67780-2020.docx", "A 67780-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 67780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 67780-2020.docx", "A 67780-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 67780-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 67780-2020.docx", "A 67780-2020")</f>
         <v/>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2203,31 +2203,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 28856-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 28856-2021.xlsx", "A 28856-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 28856-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 28856-2021.png", "A 28856-2021")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 28856-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 28856-2021.png", "A 28856-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 28856-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 28856-2021.docx", "A 28856-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 28856-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 28856-2021.docx", "A 28856-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 28856-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 28856-2021.docx", "A 28856-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 28856-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 28856-2021.docx", "A 28856-2021")</f>
         <v/>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2307,27 +2307,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43938-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43938-2020.xlsx", "A 43938-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43938-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43938-2020.png", "A 43938-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43938-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43938-2020.docx", "A 43938-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43938-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43938-2020.docx", "A 43938-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43938-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43938-2020.docx", "A 43938-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43938-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43938-2020.docx", "A 43938-2020")</f>
         <v/>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,27 +2402,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43939-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43939-2020.xlsx", "A 43939-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43939-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43939-2020.png", "A 43939-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43939-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43939-2020.docx", "A 43939-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43939-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43939-2020.docx", "A 43939-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43939-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43939-2020.docx", "A 43939-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43939-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43939-2020.docx", "A 43939-2020")</f>
         <v/>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2501,27 +2501,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43934-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 43934-2020.xlsx", "A 43934-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43934-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 43934-2020.png", "A 43934-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 43934-2020.docx", "A 43934-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 43934-2020.docx", "A 43934-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 43934-2020.docx", "A 43934-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 43934-2020.docx", "A 43934-2020")</f>
         <v/>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2595,27 +2595,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 10934-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 10934-2021.xlsx", "A 10934-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 10934-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 10934-2021.png", "A 10934-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 10934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 10934-2021.docx", "A 10934-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 10934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 10934-2021.docx", "A 10934-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 10934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 10934-2021.docx", "A 10934-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 10934-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 10934-2021.docx", "A 10934-2021")</f>
         <v/>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2689,27 +2689,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 72173-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 72173-2021.xlsx", "A 72173-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 72173-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 72173-2021.png", "A 72173-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 72173-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 72173-2021.docx", "A 72173-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 72173-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 72173-2021.docx", "A 72173-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 72173-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 72173-2021.docx", "A 72173-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 72173-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 72173-2021.docx", "A 72173-2021")</f>
         <v/>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3370-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3370-2022.xlsx", "A 3370-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3370-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3370-2022.png", "A 3370-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3370-2022.docx", "A 3370-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3370-2022.docx", "A 3370-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3370-2022.docx", "A 3370-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3370-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3370-2022.docx", "A 3370-2022")</f>
         <v/>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,27 +2876,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6207-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6207-2021.xlsx", "A 6207-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6207-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6207-2021.png", "A 6207-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6207-2021.docx", "A 6207-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6207-2021.docx", "A 6207-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6207-2021.docx", "A 6207-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6207-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6207-2021.docx", "A 6207-2021")</f>
         <v/>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,27 +2974,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12330-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12330-2023.xlsx", "A 12330-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12330-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12330-2023.png", "A 12330-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12330-2023.docx", "A 12330-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12330-2023.docx", "A 12330-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12330-2023.docx", "A 12330-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12330-2023.docx", "A 12330-2023")</f>
         <v/>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3066,27 +3066,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7824-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7824-2019.xlsx", "A 7824-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7824-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7824-2019.png", "A 7824-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7824-2019.docx", "A 7824-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7824-2019.docx", "A 7824-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7824-2019.docx", "A 7824-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7824-2019.docx", "A 7824-2019")</f>
         <v/>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3158,27 +3158,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 72168-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 72168-2021.xlsx", "A 72168-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 72168-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 72168-2021.png", "A 72168-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 72168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 72168-2021.docx", "A 72168-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 72168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 72168-2021.docx", "A 72168-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 72168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 72168-2021.docx", "A 72168-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 72168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 72168-2021.docx", "A 72168-2021")</f>
         <v/>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3250,27 +3250,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 45364-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 45364-2022.xlsx", "A 45364-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 45364-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 45364-2022.png", "A 45364-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 45364-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 45364-2022.docx", "A 45364-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 45364-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 45364-2022.docx", "A 45364-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 45364-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 45364-2022.docx", "A 45364-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 45364-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 45364-2022.docx", "A 45364-2022")</f>
         <v/>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3342,27 +3342,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 28001-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 28001-2023.xlsx", "A 28001-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 28001-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 28001-2023.png", "A 28001-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 28001-2023.docx", "A 28001-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 28001-2023.docx", "A 28001-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 28001-2023.docx", "A 28001-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 28001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 28001-2023.docx", "A 28001-2023")</f>
         <v/>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3438,31 +3438,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 51856-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 51856-2019.xlsx", "A 51856-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 51856-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 51856-2019.png", "A 51856-2019")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 51856-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 51856-2019.png", "A 51856-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 51856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 51856-2019.docx", "A 51856-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 51856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 51856-2019.docx", "A 51856-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 51856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 51856-2019.docx", "A 51856-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 51856-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 51856-2019.docx", "A 51856-2019")</f>
         <v/>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3533,27 +3533,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3358-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3358-2022.xlsx", "A 3358-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3358-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3358-2022.png", "A 3358-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3358-2022.docx", "A 3358-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3358-2022.docx", "A 3358-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3358-2022.docx", "A 3358-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3358-2022.docx", "A 3358-2022")</f>
         <v/>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3628,27 +3628,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42835-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42835-2021.xlsx", "A 42835-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42835-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42835-2021.png", "A 42835-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42835-2021.docx", "A 42835-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42835-2021.docx", "A 42835-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42835-2021.docx", "A 42835-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42835-2021.docx", "A 42835-2021")</f>
         <v/>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3718,31 +3718,31 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 11586-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 11586-2022.xlsx", "A 11586-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 11586-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 11586-2022.png", "A 11586-2022")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 11586-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 11586-2022.png", "A 11586-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 11586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 11586-2022.docx", "A 11586-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 11586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 11586-2022.docx", "A 11586-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 11586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 11586-2022.docx", "A 11586-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 11586-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 11586-2022.docx", "A 11586-2022")</f>
         <v/>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3816,27 +3816,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 36446-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 36446-2018.xlsx", "A 36446-2018")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 36446-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 36446-2018.png", "A 36446-2018")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 36446-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 36446-2018.docx", "A 36446-2018")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 36446-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 36446-2018.docx", "A 36446-2018")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 36446-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 36446-2018.docx", "A 36446-2018")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 36446-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 36446-2018.docx", "A 36446-2018")</f>
         <v/>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3905,27 +3905,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 10351-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 10351-2019.xlsx", "A 10351-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 10351-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 10351-2019.png", "A 10351-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 10351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 10351-2019.docx", "A 10351-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 10351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 10351-2019.docx", "A 10351-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 10351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 10351-2019.docx", "A 10351-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 10351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 10351-2019.docx", "A 10351-2019")</f>
         <v/>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,27 +3999,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12427-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 12427-2023.xlsx", "A 12427-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12427-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 12427-2023.png", "A 12427-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 12427-2023.docx", "A 12427-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 12427-2023.docx", "A 12427-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 12427-2023.docx", "A 12427-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 12427-2023.docx", "A 12427-2023")</f>
         <v/>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4088,27 +4088,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20701-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20701-2023.xlsx", "A 20701-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20701-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20701-2023.png", "A 20701-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20701-2023.docx", "A 20701-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20701-2023.docx", "A 20701-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20701-2023.docx", "A 20701-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20701-2023.docx", "A 20701-2023")</f>
         <v/>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4176,27 +4176,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 46729-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 46729-2018.xlsx", "A 46729-2018")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 46729-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 46729-2018.png", "A 46729-2018")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 46729-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 46729-2018.docx", "A 46729-2018")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 46729-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 46729-2018.docx", "A 46729-2018")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 46729-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 46729-2018.docx", "A 46729-2018")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 46729-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 46729-2018.docx", "A 46729-2018")</f>
         <v/>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4264,27 +4264,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7819-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7819-2019.xlsx", "A 7819-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7819-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7819-2019.png", "A 7819-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7819-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7819-2019.docx", "A 7819-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7819-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7819-2019.docx", "A 7819-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7819-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7819-2019.docx", "A 7819-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7819-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7819-2019.docx", "A 7819-2019")</f>
         <v/>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4357,27 +4357,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 33350-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 33350-2022.xlsx", "A 33350-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 33350-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 33350-2022.png", "A 33350-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 33350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 33350-2022.docx", "A 33350-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 33350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 33350-2022.docx", "A 33350-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 33350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 33350-2022.docx", "A 33350-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 33350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 33350-2022.docx", "A 33350-2022")</f>
         <v/>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4444,27 +4444,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34201-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34201-2019.xlsx", "A 34201-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34201-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34201-2019.png", "A 34201-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34201-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34201-2019.docx", "A 34201-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34201-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34201-2019.docx", "A 34201-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34201-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34201-2019.docx", "A 34201-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34201-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34201-2019.docx", "A 34201-2019")</f>
         <v/>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4531,27 +4531,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 45239-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 45239-2019.xlsx", "A 45239-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 45239-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 45239-2019.png", "A 45239-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 45239-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 45239-2019.docx", "A 45239-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 45239-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 45239-2019.docx", "A 45239-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 45239-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 45239-2019.docx", "A 45239-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 45239-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 45239-2019.docx", "A 45239-2019")</f>
         <v/>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4618,27 +4618,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3412-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3412-2022.xlsx", "A 3412-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3412-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3412-2022.png", "A 3412-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3412-2022.docx", "A 3412-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3412-2022.docx", "A 3412-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3412-2022.docx", "A 3412-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3412-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3412-2022.docx", "A 3412-2022")</f>
         <v/>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,27 +4709,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3638-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3638-2019.xlsx", "A 3638-2019")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3638-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3638-2019.png", "A 3638-2019")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3638-2019.docx", "A 3638-2019")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3638-2019.docx", "A 3638-2019")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3638-2019.docx", "A 3638-2019")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3638-2019.docx", "A 3638-2019")</f>
         <v/>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4800,27 +4800,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42000-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42000-2019.xlsx", "A 42000-2019")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42000-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42000-2019.png", "A 42000-2019")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42000-2019.docx", "A 42000-2019")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42000-2019.docx", "A 42000-2019")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42000-2019.docx", "A 42000-2019")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42000-2019.docx", "A 42000-2019")</f>
         <v/>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4886,27 +4886,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 47994-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 47994-2019.xlsx", "A 47994-2019")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 47994-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 47994-2019.png", "A 47994-2019")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 47994-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 47994-2019.docx", "A 47994-2019")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 47994-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 47994-2019.docx", "A 47994-2019")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 47994-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 47994-2019.docx", "A 47994-2019")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 47994-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 47994-2019.docx", "A 47994-2019")</f>
         <v/>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4977,27 +4977,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34276-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 34276-2020.xlsx", "A 34276-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34276-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 34276-2020.png", "A 34276-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34276-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 34276-2020.docx", "A 34276-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34276-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 34276-2020.docx", "A 34276-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34276-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 34276-2020.docx", "A 34276-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34276-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 34276-2020.docx", "A 34276-2020")</f>
         <v/>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5068,27 +5068,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29349-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29349-2021.xlsx", "A 29349-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29349-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29349-2021.png", "A 29349-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29349-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29349-2021.docx", "A 29349-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29349-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29349-2021.docx", "A 29349-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29349-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29349-2021.docx", "A 29349-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29349-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29349-2021.docx", "A 29349-2021")</f>
         <v/>
       </c>
     </row>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5154,31 +5154,31 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 40652-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 40652-2021.xlsx", "A 40652-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 40652-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 40652-2021.png", "A 40652-2021")</f>
         <v/>
       </c>
       <c r="U49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 40652-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 40652-2021.png", "A 40652-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 40652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 40652-2021.docx", "A 40652-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 40652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 40652-2021.docx", "A 40652-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 40652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 40652-2021.docx", "A 40652-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 40652-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 40652-2021.docx", "A 40652-2021")</f>
         <v/>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5244,31 +5244,31 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 40939-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 40939-2021.xlsx", "A 40939-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 40939-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 40939-2021.png", "A 40939-2021")</f>
         <v/>
       </c>
       <c r="U50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 40939-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 40939-2021.png", "A 40939-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 40939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 40939-2021.docx", "A 40939-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 40939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 40939-2021.docx", "A 40939-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 40939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 40939-2021.docx", "A 40939-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 40939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 40939-2021.docx", "A 40939-2021")</f>
         <v/>
       </c>
     </row>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5339,27 +5339,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 14070-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 14070-2022.xlsx", "A 14070-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 14070-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 14070-2022.png", "A 14070-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 14070-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 14070-2022.docx", "A 14070-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 14070-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 14070-2022.docx", "A 14070-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 14070-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 14070-2022.docx", "A 14070-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 14070-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 14070-2022.docx", "A 14070-2022")</f>
         <v/>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5430,27 +5430,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 25524-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 25524-2022.xlsx", "A 25524-2022")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 25524-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 25524-2022.png", "A 25524-2022")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 25524-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 25524-2022.docx", "A 25524-2022")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 25524-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 25524-2022.docx", "A 25524-2022")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 25524-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 25524-2022.docx", "A 25524-2022")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 25524-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 25524-2022.docx", "A 25524-2022")</f>
         <v/>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5521,27 +5521,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3893-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3893-2023.xlsx", "A 3893-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3893-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3893-2023.png", "A 3893-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3893-2023.docx", "A 3893-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3893-2023.docx", "A 3893-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3893-2023.docx", "A 3893-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3893-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3893-2023.docx", "A 3893-2023")</f>
         <v/>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,27 +5606,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7826-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 7826-2019.xlsx", "A 7826-2019")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7826-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 7826-2019.png", "A 7826-2019")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7826-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 7826-2019.docx", "A 7826-2019")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7826-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 7826-2019.docx", "A 7826-2019")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7826-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 7826-2019.docx", "A 7826-2019")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7826-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 7826-2019.docx", "A 7826-2019")</f>
         <v/>
       </c>
     </row>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5691,27 +5691,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 63673-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 63673-2019.xlsx", "A 63673-2019")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 63673-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 63673-2019.png", "A 63673-2019")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 63673-2019.docx", "A 63673-2019")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 63673-2019.docx", "A 63673-2019")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 63673-2019.docx", "A 63673-2019")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 63673-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 63673-2019.docx", "A 63673-2019")</f>
         <v/>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5781,27 +5781,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42134-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42134-2020.xlsx", "A 42134-2020")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42134-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42134-2020.png", "A 42134-2020")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42134-2020.docx", "A 42134-2020")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42134-2020.docx", "A 42134-2020")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42134-2020.docx", "A 42134-2020")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42134-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42134-2020.docx", "A 42134-2020")</f>
         <v/>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,27 +5871,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3502-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3502-2021.xlsx", "A 3502-2021")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3502-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3502-2021.png", "A 3502-2021")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3502-2021.docx", "A 3502-2021")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3502-2021.docx", "A 3502-2021")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3502-2021.docx", "A 3502-2021")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3502-2021.docx", "A 3502-2021")</f>
         <v/>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5956,27 +5956,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6210-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6210-2021.xlsx", "A 6210-2021")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6210-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6210-2021.png", "A 6210-2021")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6210-2021.docx", "A 6210-2021")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6210-2021.docx", "A 6210-2021")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6210-2021.docx", "A 6210-2021")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6210-2021.docx", "A 6210-2021")</f>
         <v/>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6046,27 +6046,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6852-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 6852-2021.xlsx", "A 6852-2021")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6852-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 6852-2021.png", "A 6852-2021")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 6852-2021.docx", "A 6852-2021")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 6852-2021.docx", "A 6852-2021")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 6852-2021.docx", "A 6852-2021")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 6852-2021.docx", "A 6852-2021")</f>
         <v/>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6131,31 +6131,31 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19713-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19713-2021.xlsx", "A 19713-2021")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19713-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19713-2021.png", "A 19713-2021")</f>
         <v/>
       </c>
       <c r="U60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 19713-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 19713-2021.png", "A 19713-2021")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19713-2021.docx", "A 19713-2021")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19713-2021.docx", "A 19713-2021")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19713-2021.docx", "A 19713-2021")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19713-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19713-2021.docx", "A 19713-2021")</f>
         <v/>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6225,27 +6225,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42843-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 42843-2021.xlsx", "A 42843-2021")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42843-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 42843-2021.png", "A 42843-2021")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 42843-2021.docx", "A 42843-2021")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 42843-2021.docx", "A 42843-2021")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 42843-2021.docx", "A 42843-2021")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 42843-2021.docx", "A 42843-2021")</f>
         <v/>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6315,27 +6315,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48337-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48337-2021.xlsx", "A 48337-2021")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48337-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48337-2021.png", "A 48337-2021")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48337-2021.docx", "A 48337-2021")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48337-2021.docx", "A 48337-2021")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48337-2021.docx", "A 48337-2021")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48337-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48337-2021.docx", "A 48337-2021")</f>
         <v/>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6405,27 +6405,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48339-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 48339-2021.xlsx", "A 48339-2021")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48339-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 48339-2021.png", "A 48339-2021")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 48339-2021.docx", "A 48339-2021")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 48339-2021.docx", "A 48339-2021")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 48339-2021.docx", "A 48339-2021")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48339-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 48339-2021.docx", "A 48339-2021")</f>
         <v/>
       </c>
     </row>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6490,31 +6490,31 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20434-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 20434-2022.xlsx", "A 20434-2022")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20434-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 20434-2022.png", "A 20434-2022")</f>
         <v/>
       </c>
       <c r="U64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 20434-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 20434-2022.png", "A 20434-2022")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 20434-2022.docx", "A 20434-2022")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 20434-2022.docx", "A 20434-2022")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 20434-2022.docx", "A 20434-2022")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20434-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 20434-2022.docx", "A 20434-2022")</f>
         <v/>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6584,27 +6584,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 39237-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 39237-2022.xlsx", "A 39237-2022")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 39237-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 39237-2022.png", "A 39237-2022")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 39237-2022.docx", "A 39237-2022")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 39237-2022.docx", "A 39237-2022")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 39237-2022.docx", "A 39237-2022")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 39237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 39237-2022.docx", "A 39237-2022")</f>
         <v/>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6669,27 +6669,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 13445-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 13445-2023.xlsx", "A 13445-2023")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 13445-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 13445-2023.png", "A 13445-2023")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 13445-2023.docx", "A 13445-2023")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 13445-2023.docx", "A 13445-2023")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 13445-2023.docx", "A 13445-2023")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 13445-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 13445-2023.docx", "A 13445-2023")</f>
         <v/>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6754,27 +6754,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19153-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 19153-2023.xlsx", "A 19153-2023")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19153-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 19153-2023.png", "A 19153-2023")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 19153-2023.docx", "A 19153-2023")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 19153-2023.docx", "A 19153-2023")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 19153-2023.docx", "A 19153-2023")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 19153-2023.docx", "A 19153-2023")</f>
         <v/>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6839,27 +6839,27 @@
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29223-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29223-2023.xlsx", "A 29223-2023")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29223-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29223-2023.png", "A 29223-2023")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29223-2023.docx", "A 29223-2023")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29223-2023.docx", "A 29223-2023")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29223-2023.docx", "A 29223-2023")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29223-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29223-2023.docx", "A 29223-2023")</f>
         <v/>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6929,31 +6929,31 @@
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29563-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29563-2023.xlsx", "A 29563-2023")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29563-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29563-2023.png", "A 29563-2023")</f>
         <v/>
       </c>
       <c r="U69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 29563-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/knärot/A 29563-2023.png", "A 29563-2023")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29563-2023.docx", "A 29563-2023")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29563-2023.docx", "A 29563-2023")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29563-2023.docx", "A 29563-2023")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29563-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29563-2023.docx", "A 29563-2023")</f>
         <v/>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7023,27 +7023,27 @@
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29572-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 29572-2023.xlsx", "A 29572-2023")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 29572-2023.png", "A 29572-2023")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 29572-2023.docx", "A 29572-2023")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 29572-2023.docx", "A 29572-2023")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 29572-2023.docx", "A 29572-2023")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 29572-2023.docx", "A 29572-2023")</f>
         <v/>
       </c>
     </row>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44904</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21806,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,59 +805,167 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A 59219-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Doftticka
+Fläckporing
+Blanksvart spiklav
+Blågrå svartspik
+Garnlav
+Granticka
+Kolflarnlav
+Kortskaftad ärgspik
+Lunglav
+Mörk kolflarnlav
+Skrovellav
+Spillkråka
+Talltita
+Vedskivlav
+Vitgrynig nållav
+Mörk kådsvartspik
+Barkticka
+Luddlav
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 59219-2022.xlsx", "A 59219-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 59219-2022.png", "A 59219-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 59219-2022.docx", "A 59219-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 59219-2022.docx", "A 59219-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 59219-2022.docx", "A 59219-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 59219-2022.docx", "A 59219-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>A 3379-2022</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44585</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STORUMAN</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>3.8</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>11</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>11</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>18</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -879,135 +987,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 3379-2022.xlsx", "A 3379-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 3379-2022.png", "A 3379-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 3379-2022.docx", "A 3379-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 3379-2022.docx", "A 3379-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 59219-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44904</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STORUMAN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Blanksvart spiklav
-Blågrå svartspik
-Garnlav
-Granticka
-Kolflarnlav
-Kortskaftad ärgspik
-Lunglav
-Mörk kolflarnlav
-Skrovellav
-Spillkråka
-Talltita
-Vedskivlav
-Vitgrynig nållav
-Mörk kådsvartspik
-Barkticka
-Luddlav
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/artfynd/A 59219-2022.xlsx", "A 59219-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/kartor/A 59219-2022.png", "A 59219-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomål/A 59219-2022.docx", "A 59219-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/klagomålsmail/A 59219-2022.docx", "A 59219-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsyn/A 59219-2022.docx", "A 59219-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_STORUMAN/tillsynsmail/A 59219-2022.docx", "A 59219-2022")</f>
         <v/>
       </c>
     </row>
@@ -1021,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1229,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1332,7 +1333,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1439,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,7 +1537,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,7 +1639,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,7 +1741,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1837,7 +1838,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,7 +1940,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2040,7 +2041,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2142,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2242,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2342,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2436,7 +2437,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2535,7 +2536,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2630,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,7 +2724,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2817,7 +2818,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2910,7 +2911,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3008,7 +3009,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3192,7 +3193,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3284,7 +3285,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3376,7 +3377,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3476,7 +3477,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3567,7 +3568,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3662,7 +3663,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3756,7 +3757,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3850,7 +3851,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3939,7 +3940,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4034,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4122,7 +4123,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4211,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4298,7 +4299,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4391,7 +4392,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4478,7 +4479,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4565,7 +4566,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4652,7 +4653,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4743,7 +4744,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4834,7 +4835,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4920,7 +4921,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5011,7 +5012,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5102,7 +5103,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5192,7 +5193,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5282,7 +5283,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5373,7 +5374,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5464,7 +5465,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5555,7 +5556,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5640,7 +5641,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5725,7 +5726,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5815,7 +5816,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5905,7 +5906,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5990,7 +5991,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6080,7 +6081,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6169,7 +6170,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6259,7 +6260,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6349,7 +6350,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6439,7 +6440,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6528,7 +6529,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6619,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6703,7 +6704,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6788,7 +6789,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6873,7 +6874,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6967,7 +6968,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7058,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7114,7 +7115,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7171,7 +7172,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7228,7 +7229,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7285,7 +7286,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7342,7 +7343,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7399,7 +7400,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7456,7 +7457,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7513,7 +7514,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7570,7 +7571,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7627,7 +7628,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7684,7 +7685,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7741,7 +7742,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7798,7 +7799,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7855,7 +7856,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7912,7 +7913,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7969,7 +7970,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8026,7 +8027,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8088,7 +8089,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8145,7 +8146,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8202,7 +8203,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8259,7 +8260,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8316,7 +8317,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8378,7 +8379,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8440,7 +8441,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8497,7 +8498,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8554,7 +8555,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8611,7 +8612,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8668,7 +8669,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8730,7 +8731,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8792,7 +8793,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8849,7 +8850,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8906,7 +8907,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8963,7 +8964,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9020,7 +9021,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9082,7 +9083,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9139,7 +9140,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9196,7 +9197,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9253,7 +9254,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9310,7 +9311,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9367,7 +9368,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9429,7 +9430,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9491,7 +9492,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9553,7 +9554,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9610,7 +9611,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9667,7 +9668,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9724,7 +9725,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9786,7 +9787,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9848,7 +9849,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9910,7 +9911,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9972,7 +9973,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10029,7 +10030,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10091,7 +10092,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10153,7 +10154,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10210,7 +10211,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10272,7 +10273,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10329,7 +10330,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10391,7 +10392,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10448,7 +10449,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10505,7 +10506,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10567,7 +10568,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10629,7 +10630,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10686,7 +10687,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10748,7 +10749,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10810,7 +10811,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10872,7 +10873,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10934,7 +10935,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10996,7 +10997,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11058,7 +11059,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11120,7 +11121,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11177,7 +11178,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11234,7 +11235,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11291,7 +11292,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11348,7 +11349,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11405,7 +11406,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11467,7 +11468,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11529,7 +11530,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11586,7 +11587,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11648,7 +11649,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11705,7 +11706,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11762,7 +11763,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11819,7 +11820,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11876,7 +11877,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11933,7 +11934,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11990,7 +11991,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12047,7 +12048,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12104,7 +12105,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12161,7 +12162,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12218,7 +12219,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12275,7 +12276,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12337,7 +12338,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12394,7 +12395,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12451,7 +12452,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12508,7 +12509,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12565,7 +12566,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12622,7 +12623,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12684,7 +12685,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12741,7 +12742,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12798,7 +12799,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12860,7 +12861,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12922,7 +12923,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12984,7 +12985,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13046,7 +13047,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13108,7 +13109,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13170,7 +13171,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13232,7 +13233,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13294,7 +13295,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13356,7 +13357,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13413,7 +13414,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13470,7 +13471,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13532,7 +13533,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13589,7 +13590,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13651,7 +13652,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13708,7 +13709,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13770,7 +13771,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13827,7 +13828,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13884,7 +13885,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13946,7 +13947,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14008,7 +14009,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14070,7 +14071,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14127,7 +14128,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14189,7 +14190,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14251,7 +14252,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14313,7 +14314,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14375,7 +14376,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14432,7 +14433,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14489,7 +14490,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14551,7 +14552,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14613,7 +14614,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14675,7 +14676,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14737,7 +14738,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14799,7 +14800,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14856,7 +14857,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14913,7 +14914,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14970,7 +14971,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15027,7 +15028,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15084,7 +15085,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15141,7 +15142,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15203,7 +15204,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15265,7 +15266,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15327,7 +15328,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15384,7 +15385,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15446,7 +15447,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15508,7 +15509,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15570,7 +15571,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15627,7 +15628,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15684,7 +15685,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15741,7 +15742,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15798,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15855,7 +15856,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15912,7 +15913,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15969,7 +15970,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16026,7 +16027,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16083,7 +16084,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16140,7 +16141,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16197,7 +16198,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16254,7 +16255,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16311,7 +16312,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16368,7 +16369,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16425,7 +16426,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16482,7 +16483,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16539,7 +16540,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16596,7 +16597,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16653,7 +16654,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16710,7 +16711,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16767,7 +16768,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16824,7 +16825,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16886,7 +16887,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16948,7 +16949,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17010,7 +17011,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17072,7 +17073,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17134,7 +17135,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17191,7 +17192,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17248,7 +17249,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17305,7 +17306,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17362,7 +17363,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17419,7 +17420,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17477,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17533,7 +17534,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17590,7 +17591,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17647,7 +17648,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17705,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17762,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17824,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17881,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17937,7 +17938,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17994,7 +17995,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18051,7 +18052,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18108,7 +18109,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18165,7 +18166,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18222,7 +18223,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18279,7 +18280,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18341,7 +18342,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18398,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18455,7 +18456,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18512,7 +18513,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18574,7 +18575,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18631,7 +18632,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18688,7 +18689,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18745,7 +18746,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18802,7 +18803,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18864,7 +18865,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18921,7 +18922,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18978,7 +18979,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19035,7 +19036,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19092,7 +19093,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19149,7 +19150,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19206,7 +19207,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19263,7 +19264,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19320,7 +19321,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19377,7 +19378,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19434,7 +19435,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19491,7 +19492,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19548,7 +19549,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19605,7 +19606,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19662,7 +19663,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19719,7 +19720,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19776,7 +19777,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19833,7 +19834,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19890,7 +19891,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19952,7 +19953,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20014,7 +20015,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20071,7 +20072,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20128,7 +20129,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20185,7 +20186,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20242,7 +20243,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20299,7 +20300,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20356,7 +20357,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20418,7 +20419,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20475,7 +20476,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20537,7 +20538,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20599,7 +20600,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20661,7 +20662,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20718,7 +20719,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20775,7 +20776,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20832,7 +20833,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20889,7 +20890,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20946,7 +20947,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21003,7 +21004,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21060,7 +21061,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21117,7 +21118,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21174,7 +21175,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21231,7 +21232,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21288,7 +21289,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21345,7 +21346,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21402,7 +21403,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21459,7 +21460,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21516,7 +21517,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21573,7 +21574,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21630,7 +21631,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21692,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21749,7 +21750,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21806,7 +21807,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21863,7 +21864,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21925,7 +21926,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21987,7 +21988,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22049,7 +22050,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22111,7 +22112,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22168,7 +22169,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22225,7 +22226,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22282,7 +22283,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22339,7 +22340,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22401,7 +22402,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22458,7 +22459,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22515,7 +22516,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22572,7 +22573,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22634,7 +22635,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22696,7 +22697,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22753,7 +22754,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22815,7 +22816,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22877,7 +22878,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22939,7 +22940,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22996,7 +22997,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23058,7 +23059,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23120,7 +23121,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23182,7 +23183,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23244,7 +23245,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23301,7 +23302,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23358,7 +23359,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23415,7 +23416,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23477,7 +23478,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23534,7 +23535,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23591,7 +23592,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23648,7 +23649,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23705,7 +23706,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23767,7 +23768,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23829,7 +23830,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23891,7 +23892,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23948,7 +23949,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24005,7 +24006,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24062,7 +24063,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24124,7 +24125,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24181,7 +24182,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24243,7 +24244,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24300,7 +24301,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24362,7 +24363,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24419,7 +24420,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24476,7 +24477,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24533,7 +24534,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24590,7 +24591,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24647,7 +24648,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24704,7 +24705,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24761,7 +24762,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24818,7 +24819,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24875,7 +24876,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24932,7 +24933,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24989,7 +24990,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25046,7 +25047,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25103,7 +25104,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25160,7 +25161,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25222,7 +25223,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25279,7 +25280,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25336,7 +25337,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25393,7 +25394,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25455,7 +25456,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25512,7 +25513,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25569,7 +25570,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25631,7 +25632,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25688,7 +25689,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25750,7 +25751,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25812,7 +25813,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25869,7 +25870,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25931,7 +25932,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25988,7 +25989,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26050,7 +26051,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26107,7 +26108,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26169,7 +26170,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26231,7 +26232,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44904</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44904</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>44077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44182</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>44357</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44081</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44078</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>44232</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44995</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43500</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44841</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44585</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>44430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>43329</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43368</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43713</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44585</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43700</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>44029</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44420</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44732</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43789</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44075</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>44218</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44232</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44237</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44312</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44699</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44817</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45005</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45044</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43339</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43341</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43346</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43369</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43385</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43398</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43399</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43405</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43461</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>43474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>43479</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43497</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>43503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>43508</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>43556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43602</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43611</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43614</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43644</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43647</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43650</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43651</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43654</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43693</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43707</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43709</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43713</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43719</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43720</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>43731</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>43732</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43733</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43756</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43774</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43775</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43782</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43784</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43789</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43794</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43853</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43854</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43867</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43874</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43879</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43907</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43959</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43983</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43986</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>43997</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44004</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44008</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44013</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44018</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44033</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44053</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44063</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44070</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44075</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44095</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>44155</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44175</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44181</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44187</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44221</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44904</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44182</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44081</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>44259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44585</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44232</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44995</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43500</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44543</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44841</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44631</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43329</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44228</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45055</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43725</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>44420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43789</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44218</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44232</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44312</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44430</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44699</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44817</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>45005</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>45044</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45106</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43339</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43346</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43363</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43385</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43423</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43430</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43431</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43474</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43493</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43497</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43501</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43508</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43598</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43611</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43614</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>43616</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43644</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43647</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43650</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43654</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43661</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43707</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43709</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43720</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43725</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43732</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43768</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43782</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43783</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43784</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43789</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43794</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43822</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43854</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43867</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43879</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43907</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43959</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43983</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43986</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43997</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44004</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44018</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44033</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44063</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44109</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44155</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44166</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44169</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44175</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44181</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44221</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44904</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44182</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44081</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>44259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44585</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44232</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44995</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43500</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44543</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44841</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44631</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43329</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44228</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45055</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43725</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>44420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43789</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44218</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44232</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44312</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44430</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44699</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44817</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>45005</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>45044</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45106</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43339</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43346</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43363</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43385</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43423</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43430</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43431</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43474</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43493</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43497</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43501</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43508</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43598</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43611</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43614</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>43616</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43644</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43647</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43650</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43654</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43661</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43707</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43709</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43720</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43725</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43732</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43768</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43782</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43783</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43784</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43789</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43794</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43822</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43854</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43867</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43879</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43907</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43959</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43983</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43986</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43997</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44004</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44018</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44033</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44063</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44109</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44155</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44166</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44169</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44175</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44181</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44221</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44904</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44182</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44081</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>44259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44585</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44232</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44995</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43500</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44543</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44841</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44631</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43329</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44228</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45055</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43725</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>44420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43789</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44218</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44232</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44312</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44430</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44699</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44817</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>45005</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>45044</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45106</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43339</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43346</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43363</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43385</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43423</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43430</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43431</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43474</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43493</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43497</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43501</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43508</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43598</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43611</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43614</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>43616</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43644</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43647</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43650</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43654</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43661</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43707</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43709</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43720</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43725</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43732</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43768</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43782</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43783</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43784</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43789</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43794</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43822</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43854</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43867</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43879</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43907</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43959</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43983</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43986</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43997</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44004</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44018</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44033</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44063</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44109</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44155</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44166</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44169</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44175</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44181</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44221</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -572,7 +572,7 @@
         <v>44078</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>44078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>44904</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44585</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44995</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44075</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44995</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44182</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44078</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44081</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>44078</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>44259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44585</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44232</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44995</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43500</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44543</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44841</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44631</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43329</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44228</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44995</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45055</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43500</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43713</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44585</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43725</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44029</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44361</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>44420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>43789</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>44218</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44232</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44312</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44430</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44699</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44817</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>45005</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>45044</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>45097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45106</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45106</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43339</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43339</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43341</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43346</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43363</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43385</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43398</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43405</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43423</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43430</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43430</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43431</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43461</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43474</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43493</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43497</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43497</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43501</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43508</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43598</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43598</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>43598</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>43602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>43611</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>43611</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>43614</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43614</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>43616</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43644</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43644</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43647</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43650</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43651</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43651</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43654</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43661</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43661</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43693</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43707</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43709</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43719</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43719</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43719</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43719</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43720</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43725</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43731</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43732</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43732</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43733</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43756</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43768</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43774</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43780</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43782</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43783</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43784</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43789</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>43789</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>43789</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>43794</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>43815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>43822</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43853</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43854</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43867</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43874</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>43879</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43907</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43907</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43959</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43959</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43983</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>43986</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43997</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44004</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44008</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44008</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44013</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44013</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44018</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44018</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44018</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44033</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44053</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44063</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44075</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44075</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44078</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44078</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44078</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44095</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44095</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44109</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44109</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44109</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44109</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44155</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44166</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44169</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44175</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44175</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44181</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44186</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44221</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44238</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44257</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44257</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44258</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44260</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>44266</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>44266</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44268</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44270</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>44270</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44273</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44273</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44279</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44295</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44307</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44312</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44312</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44312</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44322</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44364</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44364</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>44377</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44377</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44392</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44417</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44420</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44420</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44420</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44427</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44431</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44451</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44462</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44466</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44466</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44480</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44480</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44488</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44500</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44515</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44515</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44550</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44580</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44580</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>44581</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>44581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>44581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44585</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>44586</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>44588</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>44595</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19424,7 +19424,7 @@
         <v>44596</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>44601</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>44606</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44627</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
         <v>44635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44635</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44644</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44650</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44650</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>44652</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44655</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44659</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>44663</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>44665</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>44673</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44677</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44693</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44701</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44712</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44721</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44721</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44727</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44728</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44729</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44732</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44743</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44746</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44748</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>44748</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>44748</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>44776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>44782</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>44788</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>44809</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44817</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44817</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>44817</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44844</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44844</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44846</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44847</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44847</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>44851</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>44851</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44858</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44860</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44860</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44862</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44867</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44867</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44867</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44869</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>44931</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44950</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44966</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44966</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44966</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44966</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44967</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44971</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44995</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>44997</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>44998</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44998</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44998</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45013</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45040</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45042</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45049</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45050</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45054</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45056</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45077</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45079</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45090</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45092</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45098</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>45104</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45104</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45106</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45106</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>45106</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>45106</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>45106</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45107</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>45112</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45114</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45145</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
